--- a/backend/Doctor_Commissions_Report.xlsx
+++ b/backend/Doctor_Commissions_Report.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,7 +410,7 @@
         <v>Doctor Name</v>
       </c>
       <c r="C1" t="str">
-        <v>Overall Total Commission</v>
+        <v>Total Commission</v>
       </c>
     </row>
     <row r="2">
@@ -418,15 +418,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>test2 Doc</v>
+        <v xml:space="preserve"> ABDUL REHMAN </v>
       </c>
       <c r="C2" t="str">
         <v>1300.00</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v xml:space="preserve"> AMAR PAL </v>
+      </c>
+      <c r="C3" t="str">
+        <v>100.00</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>test1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1500.00</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/Doctor_Commissions_Report.xlsx
+++ b/backend/Doctor_Commissions_Report.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,10 +418,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> ABDUL REHMAN </v>
+        <v>VINEET GARG</v>
       </c>
       <c r="C2" t="str">
-        <v>1300.00</v>
+        <v>58.00</v>
       </c>
     </row>
     <row r="3">
@@ -429,10 +429,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> AMAR PAL </v>
+        <v>AMIT MISHRA</v>
       </c>
       <c r="C3" t="str">
-        <v>100.00</v>
+        <v>101.00</v>
       </c>
     </row>
     <row r="4">
@@ -440,15 +440,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>test1</v>
+        <v>PRAGATI GUPTA</v>
       </c>
       <c r="C4" t="str">
-        <v>1500.00</v>
+        <v>57.00</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>PAWAN SAINI</v>
+      </c>
+      <c r="C5" t="str">
+        <v>-127.00</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>ARCHANA AGARWAL</v>
+      </c>
+      <c r="C6" t="str">
+        <v>67.00</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
   </ignoredErrors>
 </worksheet>
 </file>